--- a/result3.xlsx
+++ b/result3.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="samples" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,316 +436,247 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>螺距值</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>p_min</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>entered</t>
+          <t>碰撞时间</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>r_head</t>
+          <t>龙头半径</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>t_stop</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>collided</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pair</t>
+          <t>是否进入</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.416</v>
+        <v>0.55</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.790047680932124</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.432</v>
+        <v>0.45</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.180079060408679</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.448</v>
+        <v>0.35</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.329851070622403</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.464</v>
+        <v>0.25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.869816257063602</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.48</v>
+        <v>0.35</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.329851070622403</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.496</v>
+        <v>0.26</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.985170578411346</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.282</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.512</v>
+        <v>0.27</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.138816621369963</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.528</v>
+        <v>0.28</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.290742646632648</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.544</v>
+        <v>0.29</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.579931064520444</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.56</v>
+        <v>0.29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.579931064520444</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.576000000000001</v>
+        <v>0.281</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.306002608506317</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.319894414088677</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.471300897152813</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.486569299600743</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.500314173919663</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.500314173919663</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.285</v>
       </c>
     </row>
   </sheetData>
